--- a/התקנות/מעקב בונוסים.xlsx
+++ b/התקנות/מעקב בונוסים.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$H$2</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -14,12 +14,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>תאריך</t>
+    <t>תאריך התחלה</t>
+  </si>
+  <si>
+    <t>תאריך סיום</t>
   </si>
   <si>
     <t>עלות</t>
   </si>
   <si>
+    <t>ימי עבודה</t>
+  </si>
+  <si>
     <t>שעות נוכחות</t>
   </si>
   <si>
@@ -32,30 +38,24 @@
     <t>שכר שעתי</t>
   </si>
   <si>
-    <t>25.01.2022 - 24.02.2022</t>
-  </si>
-  <si>
-    <t>1746699.2</t>
+    <t>22</t>
   </si>
   <si>
     <t>204.7</t>
   </si>
   <si>
     <t>183.37</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$₪-040D] #,##0.00;[$₪-040D]-#,##0.00;[$₪-040D] #,##0.00;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$₪-040D] #,##0.00;[$₪-040D]-#,##0.00;[$₪-040D] #,##0.00;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot; Days&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot; H&quot;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -101,16 +101,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,56 +401,84 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="23.71" customWidth="1" style="1"/>
-    <col min="2" max="2" width="23.71" customWidth="1" style="2"/>
-    <col min="3" max="3" width="23.71" customWidth="1" style="2"/>
-    <col min="4" max="4" width="23.71" customWidth="1" style="2"/>
-    <col min="5" max="5" width="23.71" customWidth="1" style="2"/>
-    <col min="6" max="6" width="24.14" customWidth="1" style="2"/>
+    <col min="1" max="1" width="17.71" customWidth="1" style="1"/>
+    <col min="2" max="2" width="17.71" customWidth="1" style="1"/>
+    <col min="3" max="3" width="17.71" customWidth="1" style="2"/>
+    <col min="4" max="4" width="17.71" customWidth="1" style="3"/>
+    <col min="5" max="5" width="17.71" customWidth="1" style="4"/>
+    <col min="6" max="6" width="17.71" customWidth="1" style="4"/>
+    <col min="7" max="7" width="17.71" customWidth="1" style="2"/>
+    <col min="8" max="8" width="18.71" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" r="A1" s="3">
+      <c t="s" r="A1" s="5">
         <v>0</v>
       </c>
-      <c t="s" r="B1" s="3">
+      <c t="s" r="B1" s="5">
         <v>1</v>
       </c>
-      <c t="s" r="C1" s="3">
+      <c t="s" r="C1" s="5">
         <v>2</v>
       </c>
-      <c t="s" r="D1" s="3">
+      <c t="s" r="D1" s="6">
         <v>3</v>
       </c>
-      <c t="s" r="E1" s="3">
+      <c t="s" r="E1" s="5">
         <v>4</v>
       </c>
-      <c t="s" r="F1" s="3">
+      <c t="s" r="F1" s="5">
         <v>5</v>
+      </c>
+      <c t="s" r="G1" s="5">
+        <v>6</v>
+      </c>
+      <c t="s" r="H1" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" r="A2" s="1">
-        <v>6</v>
-      </c>
-      <c t="s" r="B2" s="2">
-        <v>7</v>
-      </c>
-      <c t="s" r="C2" s="2">
+      <c r="A2" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44616</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1746699.2</v>
+      </c>
+      <c t="s" r="D2" s="3">
         <v>8</v>
       </c>
-      <c t="s" r="D2" s="2">
+      <c t="s" r="E2" s="4">
         <v>9</v>
       </c>
-      <c t="s" r="E2" s="2">
+      <c t="s" r="F2" s="4">
         <v>10</v>
       </c>
-      <c t="s" r="F2" s="2">
-        <v>11</v>
+      <c r="G2" s="2">
+        <v>4800</v>
+      </c>
+      <c r="H2" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2"/>
+  <autoFilter ref="A1:H2"/>
+  <conditionalFormatting sqref="C2:C2">
+    <cfRule priority="1" type="dataBar">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF377FD0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A39581F-5CBE-4C8A-A6BF-EBD0A56CB3AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <headerFooter>
     <oddHeader>מעקב בונוסים</oddHeader>
@@ -449,7 +486,26 @@
     <firstHeader>מעקב בונוסים</firstHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A1:F2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H2" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule id="{6A39581F-5CBE-4C8A-A6BF-EBD0A56CB3AD}" type="dataBar">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="middle">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:borderColor rgb="FF377FD0"/>
+              <x14:negativeFillColor rgb="FFEA4747"/>
+              <x14:negativeBorderColor rgb="FFEA4747"/>
+              <x14:axisColor rgb="FF00008B"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>